--- a/Tabellen/BIvariate.xlsx
+++ b/Tabellen/BIvariate.xlsx
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>22.1991596638655</v>
+        <v>22.2</v>
       </c>
       <c r="D2" t="n">
         <v>12.8</v>
@@ -479,7 +479,7 @@
         <v>32</v>
       </c>
       <c r="I2" t="n">
-        <v>4.03491085650842</v>
+        <v>4.03</v>
       </c>
       <c r="J2" t="n">
         <v>238</v>
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>20.572131147541</v>
+        <v>20.57</v>
       </c>
       <c r="D3" t="n">
         <v>13.9</v>
@@ -511,7 +511,7 @@
         <v>24.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.15780151094296</v>
+        <v>3.16</v>
       </c>
       <c r="J3" t="n">
         <v>61</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>43.4264705882353</v>
+        <v>43.43</v>
       </c>
       <c r="D4" t="n">
         <v>22.9</v>
@@ -537,13 +537,13 @@
         <v>43.6</v>
       </c>
       <c r="G4" t="n">
-        <v>48.075</v>
+        <v>48.08</v>
       </c>
       <c r="H4" t="n">
         <v>57.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6.37996707638494</v>
+        <v>6.38</v>
       </c>
       <c r="J4" t="n">
         <v>238</v>
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>44.3606557377049</v>
+        <v>44.36</v>
       </c>
       <c r="D5" t="n">
         <v>33.6</v>
@@ -575,7 +575,7 @@
         <v>60.1</v>
       </c>
       <c r="I5" t="n">
-        <v>7.43918182527542</v>
+        <v>7.44</v>
       </c>
       <c r="J5" t="n">
         <v>61</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>34.3743697478992</v>
+        <v>34.37</v>
       </c>
       <c r="D6" t="n">
         <v>19.7</v>
       </c>
       <c r="E6" t="n">
-        <v>28.325</v>
+        <v>28.33</v>
       </c>
       <c r="F6" t="n">
         <v>33.65</v>
@@ -607,7 +607,7 @@
         <v>55.1</v>
       </c>
       <c r="I6" t="n">
-        <v>7.71885019515753</v>
+        <v>7.72</v>
       </c>
       <c r="J6" t="n">
         <v>238</v>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0672131147541</v>
+        <v>35.07</v>
       </c>
       <c r="D7" t="n">
         <v>21.3</v>
@@ -639,7 +639,7 @@
         <v>49.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.91835341153476</v>
+        <v>5.92</v>
       </c>
       <c r="J7" t="n">
         <v>61</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.5890756302521</v>
+        <v>5.59</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -717,7 +717,7 @@
         <v>14.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.31918397972405</v>
+        <v>2.32</v>
       </c>
       <c r="J2" t="n">
         <v>238</v>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>8.19180327868852</v>
+        <v>8.19</v>
       </c>
       <c r="D3" t="n">
         <v>4.7</v>
@@ -749,7 +749,7 @@
         <v>11.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57927146515592</v>
+        <v>1.58</v>
       </c>
       <c r="J3" t="n">
         <v>61</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5.90882352941177</v>
+        <v>5.91</v>
       </c>
       <c r="D4" t="n">
         <v>2.1</v>
@@ -775,13 +775,13 @@
         <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>7.375</v>
+        <v>7.38</v>
       </c>
       <c r="H4" t="n">
         <v>14.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.41593817385006</v>
+        <v>2.42</v>
       </c>
       <c r="J4" t="n">
         <v>238</v>
@@ -795,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>8.84754098360656</v>
+        <v>8.85</v>
       </c>
       <c r="D5" t="n">
         <v>5.1</v>
@@ -813,7 +813,7 @@
         <v>13.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7165475580728</v>
+        <v>1.72</v>
       </c>
       <c r="J5" t="n">
         <v>61</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>5.23739495798319</v>
+        <v>5.24</v>
       </c>
       <c r="D6" t="n">
         <v>1.8</v>
@@ -839,13 +839,13 @@
         <v>4.8</v>
       </c>
       <c r="G6" t="n">
-        <v>6.475</v>
+        <v>6.47</v>
       </c>
       <c r="H6" t="n">
         <v>13.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.23259057949967</v>
+        <v>2.23</v>
       </c>
       <c r="J6" t="n">
         <v>238</v>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.43770491803279</v>
+        <v>7.44</v>
       </c>
       <c r="D7" t="n">
         <v>4.3</v>
@@ -877,7 +877,7 @@
         <v>10.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1.4521436951884</v>
+        <v>1.45</v>
       </c>
       <c r="J7" t="n">
         <v>61</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.49873949579832</v>
+        <v>3.5</v>
       </c>
       <c r="D8" t="n">
         <v>0.6</v>
@@ -903,13 +903,13 @@
         <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>4.575</v>
+        <v>4.57</v>
       </c>
       <c r="H8" t="n">
         <v>10.9</v>
       </c>
       <c r="I8" t="n">
-        <v>2.10315176570136</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
         <v>238</v>
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>7.78688524590164</v>
+        <v>7.79</v>
       </c>
       <c r="D9" t="n">
         <v>3.6</v>
@@ -941,7 +941,7 @@
         <v>12.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.97195084132943</v>
+        <v>2.97</v>
       </c>
       <c r="J9" t="n">
         <v>61</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6.12394957983193</v>
+        <v>6.12</v>
       </c>
       <c r="D10" t="n">
         <v>2.9</v>
@@ -967,13 +967,13 @@
         <v>5.75</v>
       </c>
       <c r="G10" t="n">
-        <v>7.375</v>
+        <v>7.38</v>
       </c>
       <c r="H10" t="n">
         <v>12.3</v>
       </c>
       <c r="I10" t="n">
-        <v>1.98110641996742</v>
+        <v>1.98</v>
       </c>
       <c r="J10" t="n">
         <v>238</v>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>9.1672131147541</v>
+        <v>9.17</v>
       </c>
       <c r="D11" t="n">
         <v>5.7</v>
@@ -1005,7 +1005,7 @@
         <v>13.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.42498202462059</v>
+        <v>1.42</v>
       </c>
       <c r="J11" t="n">
         <v>61</v>
@@ -1065,25 +1065,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.6396721384915</v>
+        <v>10.64</v>
       </c>
       <c r="D2" t="n">
-        <v>4.91380437910377</v>
+        <v>4.91</v>
       </c>
       <c r="E2" t="n">
-        <v>8.86414499213469</v>
+        <v>8.86</v>
       </c>
       <c r="F2" t="n">
-        <v>10.3629024578699</v>
+        <v>10.36</v>
       </c>
       <c r="G2" t="n">
-        <v>12.3052479945499</v>
+        <v>12.31</v>
       </c>
       <c r="H2" t="n">
-        <v>19.0567475033275</v>
+        <v>19.06</v>
       </c>
       <c r="I2" t="n">
-        <v>2.58921574426794</v>
+        <v>2.59</v>
       </c>
       <c r="J2" t="n">
         <v>238</v>
@@ -1097,25 +1097,25 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>20.3477137074646</v>
+        <v>20.35</v>
       </c>
       <c r="D3" t="n">
-        <v>6.26210346735522</v>
+        <v>6.26</v>
       </c>
       <c r="E3" t="n">
-        <v>16.5636999667269</v>
+        <v>16.56</v>
       </c>
       <c r="F3" t="n">
-        <v>20.4788769250899</v>
+        <v>20.48</v>
       </c>
       <c r="G3" t="n">
-        <v>24.2227456001951</v>
+        <v>24.22</v>
       </c>
       <c r="H3" t="n">
-        <v>35.0170460723674</v>
+        <v>35.02</v>
       </c>
       <c r="I3" t="n">
-        <v>6.37699450366054</v>
+        <v>6.38</v>
       </c>
       <c r="J3" t="n">
         <v>61</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.15965111201933</v>
+        <v>7.16</v>
       </c>
       <c r="D4" t="n">
-        <v>4.13449926339018</v>
+        <v>4.13</v>
       </c>
       <c r="E4" t="n">
-        <v>5.65368995751987</v>
+        <v>5.65</v>
       </c>
       <c r="F4" t="n">
-        <v>6.47285050832645</v>
+        <v>6.47</v>
       </c>
       <c r="G4" t="n">
-        <v>8.26286700723495</v>
+        <v>8.26</v>
       </c>
       <c r="H4" t="n">
-        <v>15.5993836671803</v>
+        <v>15.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.13362117384331</v>
+        <v>2.13</v>
       </c>
       <c r="J4" t="n">
         <v>238</v>
@@ -1161,25 +1161,25 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>17.0295507731333</v>
+        <v>17.03</v>
       </c>
       <c r="D5" t="n">
-        <v>8.39485279098947</v>
+        <v>8.39</v>
       </c>
       <c r="E5" t="n">
-        <v>15.1010915584229</v>
+        <v>15.1</v>
       </c>
       <c r="F5" t="n">
-        <v>16.6800676518701</v>
+        <v>16.68</v>
       </c>
       <c r="G5" t="n">
-        <v>18.3723418174541</v>
+        <v>18.37</v>
       </c>
       <c r="H5" t="n">
-        <v>28.8763057435946</v>
+        <v>28.88</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8673995156238</v>
+        <v>3.87</v>
       </c>
       <c r="J5" t="n">
         <v>61</v>
@@ -1193,25 +1193,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9861891564728</v>
+        <v>21.99</v>
       </c>
       <c r="D6" t="n">
-        <v>10.8994804744347</v>
+        <v>10.9</v>
       </c>
       <c r="E6" t="n">
-        <v>16.9195636021276</v>
+        <v>16.92</v>
       </c>
       <c r="F6" t="n">
-        <v>22.4181346265496</v>
+        <v>22.42</v>
       </c>
       <c r="G6" t="n">
-        <v>25.9502463748336</v>
+        <v>25.95</v>
       </c>
       <c r="H6" t="n">
-        <v>37.3883787761968</v>
+        <v>37.39</v>
       </c>
       <c r="I6" t="n">
-        <v>5.78055050755351</v>
+        <v>5.78</v>
       </c>
       <c r="J6" t="n">
         <v>238</v>
@@ -1225,25 +1225,25 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>14.4413389232465</v>
+        <v>14.44</v>
       </c>
       <c r="D7" t="n">
-        <v>7.69919598825644</v>
+        <v>7.7</v>
       </c>
       <c r="E7" t="n">
-        <v>12.0229345351156</v>
+        <v>12.02</v>
       </c>
       <c r="F7" t="n">
-        <v>14.2197927454789</v>
+        <v>14.22</v>
       </c>
       <c r="G7" t="n">
-        <v>16.8307838958283</v>
+        <v>16.83</v>
       </c>
       <c r="H7" t="n">
-        <v>22.3577113454797</v>
+        <v>22.36</v>
       </c>
       <c r="I7" t="n">
-        <v>3.40151567566724</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
         <v>61</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.4478297169689</v>
+        <v>9.45</v>
       </c>
       <c r="D8" t="n">
-        <v>4.35293551028271</v>
+        <v>4.35</v>
       </c>
       <c r="E8" t="n">
-        <v>6.63380730640698</v>
+        <v>6.63</v>
       </c>
       <c r="F8" t="n">
-        <v>8.72992557392984</v>
+        <v>8.73</v>
       </c>
       <c r="G8" t="n">
-        <v>11.8677213092573</v>
+        <v>11.87</v>
       </c>
       <c r="H8" t="n">
-        <v>21.0087796895042</v>
+        <v>21.01</v>
       </c>
       <c r="I8" t="n">
-        <v>3.48201550841291</v>
+        <v>3.48</v>
       </c>
       <c r="J8" t="n">
         <v>238</v>
@@ -1289,25 +1289,25 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>5.75887489770206</v>
+        <v>5.76</v>
       </c>
       <c r="D9" t="n">
-        <v>2.19568659437674</v>
+        <v>2.2</v>
       </c>
       <c r="E9" t="n">
-        <v>2.98111495095472</v>
+        <v>2.98</v>
       </c>
       <c r="F9" t="n">
-        <v>3.99218034464977</v>
+        <v>3.99</v>
       </c>
       <c r="G9" t="n">
-        <v>7.0002416012588</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>20.2375737735153</v>
+        <v>20.24</v>
       </c>
       <c r="I9" t="n">
-        <v>4.18589707808935</v>
+        <v>4.19</v>
       </c>
       <c r="J9" t="n">
         <v>61</v>
@@ -1321,25 +1321,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>11.2854136236072</v>
+        <v>11.29</v>
       </c>
       <c r="D10" t="n">
-        <v>6.49698901334641</v>
+        <v>6.5</v>
       </c>
       <c r="E10" t="n">
-        <v>9.48427177695696</v>
+        <v>9.48</v>
       </c>
       <c r="F10" t="n">
-        <v>10.9855990826016</v>
+        <v>10.99</v>
       </c>
       <c r="G10" t="n">
-        <v>13.0582838082207</v>
+        <v>13.06</v>
       </c>
       <c r="H10" t="n">
-        <v>19.624509242716</v>
+        <v>19.62</v>
       </c>
       <c r="I10" t="n">
-        <v>2.37130716431174</v>
+        <v>2.37</v>
       </c>
       <c r="J10" t="n">
         <v>238</v>
@@ -1353,25 +1353,25 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7.69459058180463</v>
+        <v>7.69</v>
       </c>
       <c r="D11" t="n">
-        <v>5.17802392437589</v>
+        <v>5.18</v>
       </c>
       <c r="E11" t="n">
-        <v>6.59722717991919</v>
+        <v>6.6</v>
       </c>
       <c r="F11" t="n">
-        <v>7.52124978239315</v>
+        <v>7.52</v>
       </c>
       <c r="G11" t="n">
-        <v>8.26173480130134</v>
+        <v>8.26</v>
       </c>
       <c r="H11" t="n">
-        <v>14.7214761919808</v>
+        <v>14.72</v>
       </c>
       <c r="I11" t="n">
-        <v>1.74990427830413</v>
+        <v>1.75</v>
       </c>
       <c r="J11" t="n">
         <v>61</v>
@@ -1385,25 +1385,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>33.9471509847263</v>
+        <v>33.95</v>
       </c>
       <c r="D12" t="n">
-        <v>22.0122332996195</v>
+        <v>22.01</v>
       </c>
       <c r="E12" t="n">
-        <v>29.7204230296764</v>
+        <v>29.72</v>
       </c>
       <c r="F12" t="n">
-        <v>33.8507228603822</v>
+        <v>33.85</v>
       </c>
       <c r="G12" t="n">
-        <v>37.7100681155954</v>
+        <v>37.71</v>
       </c>
       <c r="H12" t="n">
-        <v>52.728950149996</v>
+        <v>52.73</v>
       </c>
       <c r="I12" t="n">
-        <v>5.50294387313973</v>
+        <v>5.5</v>
       </c>
       <c r="J12" t="n">
         <v>238</v>
@@ -1417,25 +1417,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1357566817392</v>
+        <v>27.14</v>
       </c>
       <c r="D13" t="n">
-        <v>13.7783566949465</v>
+        <v>13.78</v>
       </c>
       <c r="E13" t="n">
-        <v>24.6724300586454</v>
+        <v>24.67</v>
       </c>
       <c r="F13" t="n">
-        <v>27.4055313544727</v>
+        <v>27.41</v>
       </c>
       <c r="G13" t="n">
-        <v>29.9203714042253</v>
+        <v>29.92</v>
       </c>
       <c r="H13" t="n">
-        <v>35.3799872459589</v>
+        <v>35.38</v>
       </c>
       <c r="I13" t="n">
-        <v>4.25595253303202</v>
+        <v>4.26</v>
       </c>
       <c r="J13" t="n">
         <v>61</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>26.9949579831933</v>
+        <v>26.99</v>
       </c>
       <c r="D2" t="n">
         <v>21.8</v>
@@ -1507,13 +1507,13 @@
         <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>28.175</v>
+        <v>28.17</v>
       </c>
       <c r="H2" t="n">
         <v>32.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.82961335241197</v>
+        <v>1.83</v>
       </c>
       <c r="J2" t="n">
         <v>238</v>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>23.7327868852459</v>
+        <v>23.73</v>
       </c>
       <c r="D3" t="n">
         <v>20.7</v>
@@ -1545,7 +1545,7 @@
         <v>26.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.75743385949281</v>
+        <v>1.76</v>
       </c>
       <c r="J3" t="n">
         <v>61</v>

--- a/Tabellen/BIvariate.xlsx
+++ b/Tabellen/BIvariate.xlsx
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>34.37</v>
+        <v>34.38</v>
       </c>
       <c r="D6" t="n">
         <v>19.7</v>
@@ -601,7 +601,7 @@
         <v>33.65</v>
       </c>
       <c r="G6" t="n">
-        <v>39.25</v>
+        <v>39.27</v>
       </c>
       <c r="H6" t="n">
         <v>55.1</v>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>35.07</v>
+        <v>35.09</v>
       </c>
       <c r="D7" t="n">
         <v>21.3</v>
@@ -630,16 +630,16 @@
         <v>30.6</v>
       </c>
       <c r="F7" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="G7" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="H7" t="n">
         <v>49.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="J7" t="n">
         <v>61</v>
